--- a/data/trans_camb/BARTHEL_R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>13.78103967871389</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>32.50651283345285</v>
+        <v>32.50651283345284</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.341365885931404</v>
@@ -664,7 +664,7 @@
         <v>8.446878126364146</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>28.3214662820494</v>
+        <v>28.32146628204939</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.109584472420785</v>
+        <v>-4.7743985705643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.310337333189937</v>
+        <v>-8.111972053454615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.432534942158226</v>
+        <v>7.89676621872597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.367733506197405</v>
+        <v>4.095741379254521</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.590374692174524</v>
+        <v>5.201818020494941</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>24.01780171224769</v>
+        <v>24.04144376359118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.805506055146811</v>
+        <v>2.615781449329217</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.153347303327523</v>
+        <v>2.186672308862616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>21.48014135629751</v>
+        <v>21.67950716035988</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.3861119523334</v>
+        <v>16.01631831661454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.53253756390173</v>
+        <v>9.996793619423695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32.32417996516293</v>
+        <v>30.08617371343504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.35462215916907</v>
+        <v>21.19542230118626</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>22.13079890895165</v>
+        <v>21.91027021707648</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>40.34712654486957</v>
+        <v>40.27525410617971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.09957576950048</v>
+        <v>15.57411300113775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.42498404887363</v>
+        <v>14.27533481029341</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>35.00148879362573</v>
+        <v>34.47197746744334</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1750087627420185</v>
+        <v>-0.1840958704972469</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3377284264175445</v>
+        <v>-0.3349387445349836</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3282504704349399</v>
+        <v>0.345835439064275</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1071374228559914</v>
+        <v>0.1451523919862452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1899983649518541</v>
+        <v>0.1743600717052189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8186590926520099</v>
+        <v>0.8461874538287775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1153680896405908</v>
+        <v>0.09534042591672751</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09011305963689509</v>
+        <v>0.07270675994636028</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8220457477284224</v>
+        <v>0.8185123833359733</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.048196455045435</v>
+        <v>1.042805029411884</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6791897505299426</v>
+        <v>0.6770968976216525</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.18239656825215</v>
+        <v>1.998155090243367</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.025173355957606</v>
+        <v>0.9861947351421578</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.047534496361331</v>
+        <v>1.076000293820983</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.95955249678194</v>
+        <v>1.946153840123905</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8314636650121648</v>
+        <v>0.7625341218237822</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7299871303746448</v>
+        <v>0.6867752941080753</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.789420874272038</v>
+        <v>1.728121906107961</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.922034677709475</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10.62624186660578</v>
+        <v>10.62624186660579</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>14.29981683729154</v>
@@ -869,7 +869,7 @@
         <v>10.00849843434519</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>19.92885837397569</v>
+        <v>19.9288583739757</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.42842772758495</v>
@@ -878,7 +878,7 @@
         <v>6.552573499551515</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>16.48563924723895</v>
+        <v>16.48563924723894</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.486968554041403</v>
+        <v>-1.201778330865571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.070668876102747</v>
+        <v>-4.941826463440566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.950386905590649</v>
+        <v>3.882833274407289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.096562638841101</v>
+        <v>6.001027209471331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.371878343685521</v>
+        <v>1.122427865366663</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.57764880154896</v>
+        <v>12.41344164850439</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.375714538038872</v>
+        <v>5.904698855167775</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8414134824619345</v>
+        <v>0.9522517117684535</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>11.39614921968983</v>
+        <v>11.36134664338549</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.77404502604041</v>
+        <v>14.8551812902631</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.730893133977947</v>
+        <v>8.91147205236226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.27249202919976</v>
+        <v>17.93469832583188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.55364932179327</v>
+        <v>22.26683220838268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.17975739412192</v>
+        <v>19.39500736661303</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>27.04282427588218</v>
+        <v>26.39379548406847</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.11525064330599</v>
+        <v>17.34658303562126</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.64185192917432</v>
+        <v>12.35141160935525</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.21239554129263</v>
+        <v>21.36201609045239</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1510610101031429</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.8351622624638263</v>
+        <v>0.8351622624638267</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.750256686440553</v>
@@ -974,7 +974,7 @@
         <v>0.5251076259952652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.045590962340886</v>
+        <v>1.045590962340887</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7034241882850744</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1148089725711231</v>
+        <v>-0.111555506265382</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3140493042419403</v>
+        <v>-0.3270650241363269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2442438826768387</v>
+        <v>0.2086351205204346</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2662164034077391</v>
+        <v>0.255908740380298</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09447060765552168</v>
+        <v>0.0470518850650001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4904792705969379</v>
+        <v>0.5133968027105614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.294448283582289</v>
+        <v>0.3258739906178373</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03678312491799843</v>
+        <v>0.03725380856068626</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5842825289344749</v>
+        <v>0.5916239285793741</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.565588164948446</v>
+        <v>1.595172038241959</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9103165132120727</v>
+        <v>0.9910303148006059</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.883330319743419</v>
+        <v>1.949382491971018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.553717610779277</v>
+        <v>1.511247765099513</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.307077723270847</v>
+        <v>1.284494669174282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.892589584385669</v>
+        <v>1.831979337790217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.295257303136438</v>
+        <v>1.318015050696981</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9389756836202506</v>
+        <v>0.8953478190403384</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.61152673936518</v>
+        <v>1.631606020758521</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.462285161077272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.538374219699685</v>
+        <v>4.538374219699688</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.487227104689424</v>
@@ -1083,7 +1083,7 @@
         <v>12.08216623192409</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>15.6638457235171</v>
+        <v>15.66384572351711</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.704954924561878</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.042087109858579</v>
+        <v>-3.852190324383567</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.253463122625193</v>
+        <v>-4.493969297545668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.726003557212745</v>
+        <v>-1.833480013375558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8820746875194093</v>
+        <v>-1.100836647141328</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.467647439110883</v>
+        <v>2.260562683263466</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.991101288888886</v>
+        <v>7.797829181487646</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03319642506454172</v>
+        <v>0.05187707507525949</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.781200042665936</v>
+        <v>0.7695570058533659</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.885863589559277</v>
+        <v>5.110169492364605</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.2144093091521</v>
+        <v>11.54431294147009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.51087149061231</v>
+        <v>9.997723530866635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.05952679250421</v>
+        <v>10.28635113109389</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.25022123365448</v>
+        <v>17.29364589609298</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.45320957930022</v>
+        <v>22.4010961399597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.72602464894549</v>
+        <v>22.97105639360601</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.28465910734452</v>
+        <v>12.22908830995716</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.65703987924866</v>
+        <v>13.76242442359455</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.02203247020289</v>
+        <v>14.90608866199309</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2441149075581351</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4499417129336484</v>
+        <v>0.4499417129336487</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5315231661657952</v>
@@ -1188,7 +1188,7 @@
         <v>0.7566607056131968</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9809678438669547</v>
+        <v>0.980967843866955</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5142312178698389</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2466548162537821</v>
+        <v>-0.3070821626429849</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3228666605315401</v>
+        <v>-0.3541568866305421</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1854139567644472</v>
+        <v>-0.1260777318585302</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04956737406371786</v>
+        <v>-0.06551919689517972</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05752021910911238</v>
+        <v>0.09833052911586693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.292920073929575</v>
+        <v>0.3539975996617379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.004849427895953185</v>
+        <v>0.003047521217464794</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0865506235117257</v>
+        <v>0.05079645950856175</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2930926447124056</v>
+        <v>0.3073410640931817</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.766668385609356</v>
+        <v>1.565430289691391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.574786029558109</v>
+        <v>1.472650747006053</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.552144451265278</v>
+        <v>1.611637468752634</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.495390520634544</v>
+        <v>1.467343903291292</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.810557306904111</v>
+        <v>1.829022433246475</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.003077005023745</v>
+        <v>2.151765146062275</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.148492631966977</v>
+        <v>1.172057999202468</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.373839054161856</v>
+        <v>1.333600224919598</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.533609599213148</v>
+        <v>1.623147181869341</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>5.388623541619858</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.66767874462457</v>
+        <v>11.66767874462458</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.42444797130575</v>
@@ -1306,7 +1306,7 @@
         <v>11.24963273198156</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.18354248697907</v>
+        <v>14.18354248697908</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.036338318512562</v>
+        <v>0.3605652742924604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.44038848962773</v>
+        <v>4.997699956994922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.943194010782</v>
+        <v>6.51393584216249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.956596964847319</v>
+        <v>-6.785494858904347</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.97425504069976</v>
+        <v>-11.70138037113297</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.30429967943715</v>
+        <v>-4.42711857017523</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.995277381349823</v>
+        <v>2.752288049828583</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.997803931102583</v>
+        <v>1.651661983186746</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.017925416942266</v>
+        <v>5.680525040469286</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.3007740761014</v>
+        <v>22.31668172992008</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>26.74502909504084</v>
+        <v>25.89686854516949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.99637608721002</v>
+        <v>22.22059662326488</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.88655669478417</v>
+        <v>27.15140001993183</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.40740485131753</v>
+        <v>18.66527909507395</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.71276960692655</v>
+        <v>22.70998885412153</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>21.80917460685892</v>
+        <v>22.33753173701574</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.38593716244501</v>
+        <v>20.04705435390044</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>21.01571485840739</v>
+        <v>20.84604452954319</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3274733230388465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7090592803785567</v>
+        <v>0.709059280378557</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.196369883375707</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.39930104434265</v>
+        <v>-0.2408672343084546</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.251391566003408</v>
+        <v>0.186292619271066</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2881694548529852</v>
+        <v>0.4416485395243567</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.196319053431677</v>
+        <v>-0.3254849283191545</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4378936591448607</v>
+        <v>-0.4297161139703742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1749140513752703</v>
+        <v>-0.1636877093573346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04930291350539717</v>
+        <v>0.1244469292161494</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08427987249541796</v>
+        <v>0.04498421736955505</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3150639801177667</v>
+        <v>0.293711244808435</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11.11474164637948</v>
+        <v>13.57882372338146</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14.65134121947917</v>
+        <v>14.10009306787406</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11.98507882093654</v>
+        <v>13.18318878353054</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.474014006407202</v>
+        <v>3.706630930304926</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.328123096573037</v>
+        <v>2.792012253212625</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.38342374237013</v>
+        <v>3.171809541595238</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.5666617715659</v>
+        <v>3.844099324473295</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.6997245812783</v>
+        <v>3.474244008006364</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.026008609804807</v>
+        <v>3.952680647540122</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>10.46532700256702</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>16.88823518622788</v>
+        <v>16.88823518622787</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.788317865428796</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.29981582275518</v>
+        <v>1.728396507161547</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4182605272473562</v>
+        <v>-0.3432089615373402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.143793262402576</v>
+        <v>4.096923859366648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.257149097242682</v>
+        <v>6.223018407903295</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.591683055711359</v>
+        <v>5.618912037869644</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.85419833316822</v>
+        <v>12.50153267653332</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.185666430090903</v>
+        <v>5.45267802520168</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.230142558266318</v>
+        <v>4.24880396608154</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.05576125184914</v>
+        <v>9.790931795380095</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.54086271878308</v>
+        <v>10.62770957099903</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.129896246173184</v>
+        <v>7.800362791900735</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.1066787074121</v>
+        <v>11.8881128887974</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.59447793126361</v>
+        <v>15.78814446557411</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.07600932759025</v>
+        <v>15.17979768317204</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.83049352848818</v>
+        <v>20.51421801578192</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.17431755786004</v>
+        <v>12.2184686272704</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.82335701084458</v>
+        <v>10.92399171449842</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.79017548697667</v>
+        <v>15.80120233095903</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5102447042706859</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8233983100706701</v>
+        <v>0.8233983100706699</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5056348549083962</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08358419598293357</v>
+        <v>0.08211860662265383</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02788115706534574</v>
+        <v>-0.02119992414854206</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2611834778500109</v>
+        <v>0.2519541221509892</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2673296161226135</v>
+        <v>0.264033276742688</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2337600062465539</v>
+        <v>0.24956642774432</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5520160867709075</v>
+        <v>0.5245384326141265</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2658375217791846</v>
+        <v>0.2816035700527509</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2295183514247275</v>
+        <v>0.220907344803297</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5174597258044507</v>
+        <v>0.5029620767946196</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9516028392180694</v>
+        <v>0.9684127181818399</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7609221792622005</v>
+        <v>0.7031918329889768</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.116470992057422</v>
+        <v>1.078527524995286</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8619261532605516</v>
+        <v>0.8591484119058658</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8045080407387284</v>
+        <v>0.850326440727148</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.167121596860489</v>
+        <v>1.142402688767032</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7708098714434476</v>
+        <v>0.7637472296188025</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6911008669607327</v>
+        <v>0.7014197369512909</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.021810705091284</v>
+        <v>1.008193928744283</v>
       </c>
     </row>
     <row r="34">
